--- a/data/trans_bre/P23_9_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_9_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,64</t>
+          <t>9,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,72</t>
+          <t>12,62</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,96</t>
+          <t>13,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-27,48%</t>
+          <t>20,47</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>57,52%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>33,42%</t>
+          <t>49,21%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>85,0%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>158,22%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-29,51; 6,64</t>
+          <t>-6,43; 27,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 18,66</t>
+          <t>-7,85; 32,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 17,5</t>
+          <t>-3,88; 32,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-65,54; 38,75</t>
+          <t>1,63; 39,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,16; 119,79</t>
+          <t>-26,58; 356,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-32,81; 146,02</t>
+          <t>-22,77; 226,72</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-19,09; 486,51</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-3,22; 704,54</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,18%</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,33%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>-5,33%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-18,25%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3,45%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 5,54</t>
+          <t>-7,75; 7,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 11,36</t>
+          <t>-13,08; 7,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 8,65</t>
+          <t>-17,83; 5,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,06; 51,81</t>
+          <t>-7,63; 8,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,81; 90,43</t>
+          <t>-45,48; 85,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,99; 84,42</t>
+          <t>-49,94; 61,98</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-64,53; 46,03</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-47,37; 109,02</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-5,55</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,22</t>
+          <t>9,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>48,93%</t>
+          <t>-4,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,46%</t>
+          <t>35,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>76,37%</t>
+          <t>-25,96%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>61,56%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-39,27%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 11,37</t>
+          <t>-3,9; 11,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 5,96</t>
+          <t>-17,9; 3,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 18,51</t>
+          <t>0,98; 18,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 145,24</t>
+          <t>-11,75; 1,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,51; 48,06</t>
+          <t>-26,7; 157,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,49; 161,85</t>
+          <t>-57,75; 27,44</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3,87; 184,75</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-72,28; 30,22</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>38,76%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 5,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 7,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 10,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,41; 41,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 51,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 85,05</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,91</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,96</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>22,54%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-4,36%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>23,84%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15,16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,19; 8,52</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-9,13; 6,12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-4,01; 9,87</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-4,15; 7,94</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-13,52; 86,14</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-34,86; 37,36</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-18,76; 73,7</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-26,24; 83,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P23_9_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_9_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>9,71</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>12,62</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>13,09</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>20,47</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>57,52%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>49,21%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>85,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>158,22%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>5.091761325113578</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>11.70981860233536</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>11.87748154994335</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>20.80139736537761</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.2466763628723548</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.4394705062220647</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.7899551071234822</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.629095709590893</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-6,43; 27,16</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,85; 32,56</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,88; 32,8</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>1,63; 39,97</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-26,58; 356,57</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-22,77; 226,72</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-19,09; 486,51</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-3,22; 704,54</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-15.0118809202961</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-8.611015266737864</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.295938987030464</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>2.47251169625562</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.4717454534056171</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.2625787274301712</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.1995004192016016</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.05534720347953381</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>23.12634258769176</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>31.6892099707717</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>30.76448420674853</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>41.42208416047835</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>2.306048698261744</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2.106671506449645</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>4.694455998304449</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>7.67769513677496</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,02</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-3,29</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,64%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-5,33%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-18,25%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>3,45%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,75; 7,22</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-13,08; 7,88</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-17,83; 5,55</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,63; 8,49</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-45,48; 85,13</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-49,94; 61,98</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-64,53; 46,03</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-47,37; 109,02</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.295255472810481</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.9107189305711416</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.506198876764592</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.1859970176306208</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.1823199012683743</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.05092626377031542</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.08901438905752507</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.0144942885763104</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,86</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,55</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>9,26</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-4,73</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>35,43%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-25,96%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>61,56%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-39,27%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.668566620797518</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-10.00114991807247</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-15.77432312930781</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-7.950532480604826</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.3593190710594361</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.436129046625815</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.6010436148877694</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4686597258205398</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,9; 11,64</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-17,9; 3,73</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,98; 18,18</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-11,75; 1,83</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-26,7; 157,46</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-57,75; 27,44</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>3,87; 184,75</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-72,28; 30,22</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>10.40331849425103</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>9.464803287161997</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.848459502682913</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>8.303248871905478</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.248139362182142</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.7766148935691528</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.6022472357854327</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.022609062679187</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>4.43568625418949</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-6.852955756772938</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>8.609158037180858</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-5.266379627075027</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.4333423899715489</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.3062933360405629</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.564393309579821</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.4264518468251545</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.314580356538119</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-19.219423295718</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2733371109219046</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-12.82578480054502</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.2511041580397868</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.6015061328527728</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.009264250070482883</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7336926258372689</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.05831510373729</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.0135839728713</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>17.43530860234314</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.139649744633096</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1.646195265307351</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.2229900294312689</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.692039503885707</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.2024747928746229</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,85</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,91</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,96</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>22,54%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-4,36%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>23,84%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>15,16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,19; 8,52</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-9,13; 6,12</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,01; 9,87</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,15; 7,94</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-13,52; 86,14</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-34,86; 37,36</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-18,76; 73,7</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-26,24; 83,03</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>3.463274535809649</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.4191864275029017</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.358988865180508</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.830611452462894</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.2708777296532827</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.02029097099366527</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.271072409626619</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1445853405017292</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.743085744909552</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-8.165380599392877</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.741076401196886</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-4.335715679958127</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1247527734028461</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.317538328887335</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1772919615152733</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.277672672194509</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.343772412543096</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.59237810797525</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.970963270658919</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>8.084069719560222</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.9150200444612251</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.3953574309389418</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.7949295082206156</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.8074266543568164</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
